--- a/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D998C47-046E-49EE-B6EB-D6321BAEE655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDAAFB3A-B903-4D74-A39A-6A1F4AFCA8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{489F7A8A-0459-4489-B0CF-810982DF0F2E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6613C051-9807-426A-BB48-D44455A4FA61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
   </si>
   <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>83,0%</t>
   </si>
   <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>78,16%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1792 +140,1792 @@
     <t>13,78%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>19,88%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>65,1%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD875AC-59AD-4F1D-8428-5DF368ACDE65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A426E85A-0F59-4BE3-B7A0-57274880150C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3719,10 +3719,10 @@
         <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1562</v>
@@ -3731,13 +3731,13 @@
         <v>1578614</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3752,13 @@
         <v>2704443</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2319</v>
@@ -3767,28 +3767,28 @@
         <v>2372684</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>4949</v>
       </c>
       <c r="N29" s="7">
-        <v>5077126</v>
+        <v>5077127</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,7 +3830,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3868,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB851182-072F-4FFA-9D08-91E89AB61068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F7EC-7D98-4D22-886B-DE1373F75FC1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3885,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3990,39 +3990,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,39 +4035,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,39 +4080,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4129,13 @@
         <v>131038</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -4144,13 +4144,13 @@
         <v>218291</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>309</v>
@@ -4159,13 +4159,13 @@
         <v>349329</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4180,13 @@
         <v>374489</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -4195,13 +4195,13 @@
         <v>305474</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
@@ -4210,13 +4210,13 @@
         <v>679963</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4284,13 @@
         <v>96621</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4299,13 +4299,13 @@
         <v>148921</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -4314,13 +4314,13 @@
         <v>245542</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4335,13 @@
         <v>227425</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -4350,13 +4350,13 @@
         <v>192099</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -4365,13 +4365,13 @@
         <v>419524</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4439,13 @@
         <v>164807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -4454,13 +4454,13 @@
         <v>295208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>425</v>
@@ -4469,13 +4469,13 @@
         <v>460015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4490,13 @@
         <v>503913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -4505,13 +4505,13 @@
         <v>380988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>828</v>
@@ -4520,13 +4520,13 @@
         <v>884901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4594,13 @@
         <v>58443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -4609,13 +4609,13 @@
         <v>117994</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -4624,13 +4624,13 @@
         <v>176436</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4645,13 @@
         <v>154175</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4660,13 +4660,13 @@
         <v>101597</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>244</v>
@@ -4675,13 +4675,13 @@
         <v>255773</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4749,13 @@
         <v>88796</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4764,13 +4764,13 @@
         <v>122965</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -4779,13 +4779,13 @@
         <v>211762</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4800,13 @@
         <v>185185</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -4815,13 +4815,13 @@
         <v>157066</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>324</v>
@@ -4830,13 +4830,13 @@
         <v>342250</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>161232</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -4919,13 +4919,13 @@
         <v>262926</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -4934,13 +4934,13 @@
         <v>424158</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4955,13 @@
         <v>501556</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>400</v>
@@ -4970,13 +4970,13 @@
         <v>430927</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>869</v>
@@ -4985,13 +4985,13 @@
         <v>932483</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5059,13 @@
         <v>164625</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -5074,13 +5074,13 @@
         <v>257173</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>384</v>
@@ -5089,13 +5089,13 @@
         <v>421798</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5110,13 @@
         <v>614473</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>520</v>
@@ -5220,7 +5220,7 @@
         <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="H28" s="7">
         <v>1317</v>
@@ -5229,13 +5229,13 @@
         <v>1423478</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M28" s="7">
         <v>2103</v>
@@ -5268,10 +5268,10 @@
         <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>1981</v>
@@ -5280,10 +5280,10 @@
         <v>2134831</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>319</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5381,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBFFCA7-980F-4D62-9749-B945DB880D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D0C55-E414-4AA8-99EA-78E8053C76C3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5541,7 +5541,7 @@
         <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5556,13 @@
         <v>239066</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5571,13 +5571,13 @@
         <v>199000</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -5586,13 +5586,13 @@
         <v>438066</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5660,13 @@
         <v>115445</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -5675,13 +5675,13 @@
         <v>195528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -5690,13 +5690,13 @@
         <v>310972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5711,13 @@
         <v>387130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -5726,13 +5726,13 @@
         <v>327556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>673</v>
@@ -5741,13 +5741,13 @@
         <v>714687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5815,13 @@
         <v>69182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5830,13 +5830,13 @@
         <v>97683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -5845,13 +5845,13 @@
         <v>166865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5866,13 @@
         <v>249383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -5881,13 +5881,13 @@
         <v>238626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -5896,13 +5896,13 @@
         <v>488009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5970,13 @@
         <v>111083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>154</v>
@@ -5985,13 +5985,13 @@
         <v>171174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>267</v>
@@ -6000,13 +6000,13 @@
         <v>282258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6021,13 @@
         <v>258881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6036,13 +6036,13 @@
         <v>216109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>445</v>
@@ -6051,13 +6051,13 @@
         <v>474989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6125,13 @@
         <v>41482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -6140,13 +6140,13 @@
         <v>97476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -6155,13 +6155,13 @@
         <v>138958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6176,13 @@
         <v>169739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6191,13 +6191,13 @@
         <v>121111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>297</v>
@@ -6206,13 +6206,13 @@
         <v>290850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6280,13 @@
         <v>54977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6295,13 +6295,13 @@
         <v>82970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -6310,13 +6310,13 @@
         <v>137946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6331,13 @@
         <v>208146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -6346,13 +6346,13 @@
         <v>190145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6361,13 +6361,13 @@
         <v>398292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6435,13 @@
         <v>139529</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6450,13 +6450,13 @@
         <v>206668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -6465,13 +6465,13 @@
         <v>346197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6486,13 @@
         <v>517029</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>467</v>
@@ -6501,13 +6501,13 @@
         <v>484626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>919</v>
@@ -6516,13 +6516,13 @@
         <v>1001655</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6590,13 @@
         <v>192574</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6605,13 +6605,13 @@
         <v>292635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>437</v>
@@ -6620,13 +6620,13 @@
         <v>485208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6641,13 @@
         <v>586009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6656,13 +6656,13 @@
         <v>533532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>1068</v>
@@ -6671,13 +6671,13 @@
         <v>1119542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6745,13 @@
         <v>778966</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>1101</v>
@@ -6760,13 +6760,13 @@
         <v>1233836</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>1870</v>
@@ -6775,13 +6775,13 @@
         <v>2012802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6796,13 @@
         <v>2615384</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>2237</v>
@@ -6811,13 +6811,13 @@
         <v>2310706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>4699</v>
@@ -6826,13 +6826,13 @@
         <v>4926090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6912,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1755D560-4B98-4E2E-BEED-C00D4E8D5E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7AD9A1-A0B2-4056-8184-3558DA5753F6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7036,13 @@
         <v>74080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
@@ -7051,13 +7051,13 @@
         <v>104497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>318</v>
@@ -7066,13 +7066,13 @@
         <v>178577</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7087,13 @@
         <v>186218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
@@ -7102,13 +7102,13 @@
         <v>166906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
@@ -7117,13 +7117,13 @@
         <v>353123</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7191,13 @@
         <v>137263</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
@@ -7206,13 +7206,13 @@
         <v>215394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>424</v>
@@ -7221,13 +7221,13 @@
         <v>352657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7242,13 @@
         <v>382034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>413</v>
@@ -7257,13 +7257,13 @@
         <v>339172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>675</v>
@@ -7272,13 +7272,13 @@
         <v>721207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7346,13 @@
         <v>114080</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -7361,13 +7361,13 @@
         <v>163055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -7376,13 +7376,13 @@
         <v>277135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7397,13 @@
         <v>208160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -7412,13 +7412,13 @@
         <v>210229</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -7427,13 +7427,13 @@
         <v>418389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>112889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>329</v>
@@ -7516,13 +7516,13 @@
         <v>188590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>448</v>
@@ -7531,13 +7531,13 @@
         <v>301479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7552,13 @@
         <v>209351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -7567,13 +7567,13 @@
         <v>239966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -7582,13 +7582,13 @@
         <v>449317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7656,13 @@
         <v>58510</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>542</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -7671,13 +7671,13 @@
         <v>104042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -7686,13 +7686,13 @@
         <v>162551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7707,13 @@
         <v>138238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -7722,13 +7722,13 @@
         <v>155471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>444</v>
@@ -7737,13 +7737,13 @@
         <v>293709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7811,13 @@
         <v>105345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -7826,13 +7826,13 @@
         <v>122290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
@@ -7841,13 +7841,13 @@
         <v>227635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7862,13 @@
         <v>171878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
@@ -7877,13 +7877,13 @@
         <v>153332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -7892,13 +7892,13 @@
         <v>325210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7966,13 @@
         <v>222705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>451</v>
@@ -7981,13 +7981,13 @@
         <v>421372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>682</v>
@@ -7996,13 +7996,13 @@
         <v>644077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +8017,13 @@
         <v>405049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>585</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -8032,13 +8032,13 @@
         <v>382831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M23" s="7">
         <v>877</v>
@@ -8047,13 +8047,13 @@
         <v>787880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8121,13 @@
         <v>186720</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>420</v>
@@ -8136,13 +8136,13 @@
         <v>304731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
@@ -8151,13 +8151,13 @@
         <v>491451</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8172,13 @@
         <v>672708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>642</v>
@@ -8187,13 +8187,13 @@
         <v>563703</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
@@ -8202,13 +8202,13 @@
         <v>1236411</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8276,13 @@
         <v>1011591</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>2479</v>
@@ -8291,28 +8291,28 @@
         <v>1623970</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>3686</v>
       </c>
       <c r="N28" s="7">
-        <v>2635562</v>
+        <v>2635561</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,10 +8327,10 @@
         <v>2373637</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>622</v>
@@ -8405,7 +8405,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDAAFB3A-B903-4D74-A39A-6A1F4AFCA8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD0F70D-B1F8-432F-9BFF-221E9137A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6613C051-9807-426A-BB48-D44455A4FA61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59066ED4-EC5A-4544-A8BF-3C15B2153B50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="641">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1572 +77,1614 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
     <t>21,72%</t>
   </si>
   <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>34,86%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>65,14%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>41,79%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
   </si>
   <si>
     <t>58,21%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
     <t>71,08%</t>
   </si>
   <si>
@@ -1835,9 +1877,6 @@
     <t>32,04%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
     <t>28,44%</t>
   </si>
   <si>
@@ -1857,9 +1896,6 @@
   </si>
   <si>
     <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
   </si>
   <si>
     <t>67,96%</t>
@@ -2337,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A426E85A-0F59-4BE3-B7A0-57274880150C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07526AC-81C9-423B-8296-B560BA61D024}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2491,19 +2527,19 @@
         <v>116582</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>222</v>
@@ -2512,13 +2548,13 @@
         <v>226605</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -2527,13 +2563,13 @@
         <v>190661</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>399</v>
@@ -2542,13 +2578,13 @@
         <v>417266</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,13 +2599,13 @@
         <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -2578,13 +2614,13 @@
         <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -2593,18 +2629,18 @@
         <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2616,13 +2652,13 @@
         <v>67958</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -2631,13 +2667,13 @@
         <v>154593</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>218</v>
@@ -2646,19 +2682,19 @@
         <v>222551</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>400</v>
@@ -2667,13 +2703,13 @@
         <v>425117</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>346</v>
@@ -2682,13 +2718,13 @@
         <v>349356</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>746</v>
@@ -2697,13 +2733,13 @@
         <v>774473</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2754,13 @@
         <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>499</v>
@@ -2733,13 +2769,13 @@
         <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>964</v>
@@ -2748,18 +2784,18 @@
         <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2771,13 +2807,13 @@
         <v>50841</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -2786,13 +2822,13 @@
         <v>88830</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -2801,19 +2837,19 @@
         <v>139671</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>259</v>
@@ -2822,13 +2858,13 @@
         <v>268005</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -2837,13 +2873,13 @@
         <v>246582</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>506</v>
@@ -2852,13 +2888,13 @@
         <v>514587</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2909,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>335</v>
@@ -2888,13 +2924,13 @@
         <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>645</v>
@@ -2903,18 +2939,18 @@
         <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2926,13 +2962,13 @@
         <v>64609</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -2941,13 +2977,13 @@
         <v>118406</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -2956,19 +2992,19 @@
         <v>183015</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>294</v>
@@ -2977,13 +3013,13 @@
         <v>294062</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -2992,13 +3028,13 @@
         <v>253050</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>556</v>
@@ -3007,13 +3043,13 @@
         <v>547112</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3064,13 @@
         <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>384</v>
@@ -3043,13 +3079,13 @@
         <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>746</v>
@@ -3058,18 +3094,18 @@
         <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3081,13 +3117,13 @@
         <v>31488</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -3096,13 +3132,13 @@
         <v>74517</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -3111,19 +3147,19 @@
         <v>106005</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>172</v>
@@ -3132,13 +3168,13 @@
         <v>171820</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
@@ -3147,13 +3183,13 @@
         <v>133151</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -3162,13 +3198,13 @@
         <v>304971</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3219,13 @@
         <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -3198,13 +3234,13 @@
         <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>404</v>
@@ -3213,18 +3249,18 @@
         <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3236,13 +3272,13 @@
         <v>49012</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3251,13 +3287,13 @@
         <v>81650</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3266,19 +3302,19 @@
         <v>130662</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>217</v>
@@ -3287,13 +3323,13 @@
         <v>221799</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -3302,13 +3338,13 @@
         <v>196494</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>409</v>
@@ -3317,13 +3353,13 @@
         <v>418293</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3374,13 @@
         <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3353,13 +3389,13 @@
         <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3368,18 +3404,18 @@
         <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3391,13 +3427,13 @@
         <v>107265</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>180</v>
@@ -3406,13 +3442,13 @@
         <v>181143</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -3421,19 +3457,19 @@
         <v>288408</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>488</v>
@@ -3442,13 +3478,13 @@
         <v>507762</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>441</v>
@@ -3457,13 +3493,13 @@
         <v>457076</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>929</v>
@@ -3472,13 +3508,13 @@
         <v>964838</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3529,13 @@
         <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>621</v>
@@ -3508,13 +3544,13 @@
         <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1219</v>
@@ -3523,18 +3559,18 @@
         <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3546,13 +3582,13 @@
         <v>154523</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -3561,13 +3597,13 @@
         <v>237198</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>377</v>
@@ -3576,19 +3612,19 @@
         <v>391720</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>578</v>
@@ -3597,13 +3633,13 @@
         <v>589272</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>526</v>
@@ -3612,13 +3648,13 @@
         <v>546313</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1104</v>
@@ -3627,13 +3663,13 @@
         <v>1135586</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3684,13 @@
         <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>745</v>
@@ -3663,13 +3699,13 @@
         <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1481</v>
@@ -3678,13 +3714,13 @@
         <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3737,13 @@
         <v>572101</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>978</v>
@@ -3716,13 +3752,13 @@
         <v>1006514</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>1562</v>
@@ -3731,34 +3767,34 @@
         <v>1578614</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2630</v>
       </c>
       <c r="D29" s="7">
-        <v>2704443</v>
+        <v>2704442</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>2319</v>
@@ -3767,13 +3803,13 @@
         <v>2372684</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M29" s="7">
         <v>4949</v>
@@ -3800,16 +3836,16 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3297</v>
@@ -3818,13 +3854,13 @@
         <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6511</v>
@@ -3833,13 +3869,13 @@
         <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7F7EC-7D98-4D22-886B-DE1373F75FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A7E05-AE50-4169-BCBE-75CF779B5984}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4028,7 +4064,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4117,7 +4153,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4171,7 +4207,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>360</v>
@@ -4231,13 +4267,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -4246,13 +4282,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -4261,18 +4297,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4326,7 +4362,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>228</v>
@@ -4386,13 +4422,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -4401,13 +4437,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -4416,18 +4452,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4445,7 +4481,7 @@
         <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -4454,13 +4490,13 @@
         <v>295208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>425</v>
@@ -4469,19 +4505,19 @@
         <v>460015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>478</v>
@@ -4490,13 +4526,13 @@
         <v>503913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -4505,13 +4541,13 @@
         <v>380988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>828</v>
@@ -4520,13 +4556,13 @@
         <v>884901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4577,13 @@
         <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>627</v>
@@ -4556,13 +4592,13 @@
         <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1253</v>
@@ -4571,18 +4607,18 @@
         <v>1344916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4594,13 +4630,13 @@
         <v>58443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -4609,13 +4645,13 @@
         <v>117994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -4624,19 +4660,19 @@
         <v>176436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>144</v>
@@ -4645,13 +4681,13 @@
         <v>154175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4660,13 +4696,13 @@
         <v>101597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>244</v>
@@ -4675,13 +4711,13 @@
         <v>255773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4732,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4711,13 +4747,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -4726,18 +4762,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4749,13 +4785,13 @@
         <v>88796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4764,13 +4800,13 @@
         <v>122965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -4779,19 +4815,19 @@
         <v>211762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>174</v>
@@ -4800,13 +4836,13 @@
         <v>185185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -4815,13 +4851,13 @@
         <v>157066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>324</v>
@@ -4830,13 +4866,13 @@
         <v>342250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,13 +4887,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -4866,13 +4902,13 @@
         <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>530</v>
@@ -4881,18 +4917,18 @@
         <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4904,13 +4940,13 @@
         <v>161232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -4919,13 +4955,13 @@
         <v>262926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -4934,19 +4970,19 @@
         <v>424158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>469</v>
@@ -4955,13 +4991,13 @@
         <v>501556</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>400</v>
@@ -4970,13 +5006,13 @@
         <v>430927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>869</v>
@@ -4985,13 +5021,13 @@
         <v>932483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5042,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -5021,13 +5057,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -5036,18 +5072,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5059,13 +5095,13 @@
         <v>164625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -5074,13 +5110,13 @@
         <v>257173</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>384</v>
@@ -5089,19 +5125,19 @@
         <v>421798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>570</v>
@@ -5110,13 +5146,13 @@
         <v>614473</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>520</v>
@@ -5125,13 +5161,13 @@
         <v>566680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1090</v>
@@ -5140,13 +5176,13 @@
         <v>1181153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5197,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>757</v>
@@ -5176,13 +5212,13 @@
         <v>823853</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1474</v>
@@ -5191,13 +5227,13 @@
         <v>1602951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5250,13 @@
         <v>865562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1317</v>
@@ -5229,13 +5265,13 @@
         <v>1423478</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>2103</v>
@@ -5244,19 +5280,19 @@
         <v>2289040</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2423</v>
@@ -5265,13 +5301,13 @@
         <v>2561217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>1981</v>
@@ -5280,13 +5316,13 @@
         <v>2134831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>4404</v>
@@ -5295,13 +5331,13 @@
         <v>4696048</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5352,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3298</v>
@@ -5331,13 +5367,13 @@
         <v>3558309</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6507</v>
@@ -5346,13 +5382,13 @@
         <v>6985088</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284D0C55-E414-4AA8-99EA-78E8053C76C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E16F6CF-A8A3-4EE8-9FDB-AE5F2DFF6D4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5541,13 @@
         <v>54695</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5520,13 +5556,13 @@
         <v>89703</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -5535,19 +5571,19 @@
         <v>144398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>212</v>
@@ -5556,13 +5592,13 @@
         <v>239066</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5571,13 +5607,13 @@
         <v>199000</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -5586,13 +5622,13 @@
         <v>438066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5643,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -5622,13 +5658,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -5637,18 +5673,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5660,13 +5696,13 @@
         <v>115445</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -5675,13 +5711,13 @@
         <v>195528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -5690,19 +5726,19 @@
         <v>310972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>364</v>
@@ -5711,13 +5747,13 @@
         <v>387130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -5726,13 +5762,13 @@
         <v>327556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>199</v>
+        <v>355</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>673</v>
@@ -5741,13 +5777,13 @@
         <v>714687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5798,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -5777,13 +5813,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -5792,18 +5828,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5815,13 +5851,13 @@
         <v>69182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5830,13 +5866,13 @@
         <v>97683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -5845,19 +5881,19 @@
         <v>166865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>259</v>
@@ -5866,13 +5902,13 @@
         <v>249383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -5881,13 +5917,13 @@
         <v>238626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -5896,13 +5932,13 @@
         <v>488009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,13 +5953,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -5932,13 +5968,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -5947,18 +5983,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5970,13 +6006,13 @@
         <v>111083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>154</v>
@@ -5985,13 +6021,13 @@
         <v>171174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>267</v>
@@ -6000,19 +6036,19 @@
         <v>282258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>241</v>
@@ -6021,13 +6057,13 @@
         <v>258881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6036,13 +6072,13 @@
         <v>216109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>445</v>
@@ -6051,13 +6087,13 @@
         <v>474989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6108,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -6087,13 +6123,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -6102,18 +6138,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6125,13 +6161,13 @@
         <v>41482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -6140,13 +6176,13 @@
         <v>97476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -6155,19 +6191,19 @@
         <v>138958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>170</v>
@@ -6176,13 +6212,13 @@
         <v>169739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6191,13 +6227,13 @@
         <v>121111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>297</v>
@@ -6206,13 +6242,13 @@
         <v>290850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6263,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -6242,13 +6278,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -6257,18 +6293,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6280,13 +6316,13 @@
         <v>54977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6295,13 +6331,13 @@
         <v>82970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -6310,19 +6346,19 @@
         <v>137946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>202</v>
@@ -6331,13 +6367,13 @@
         <v>208146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -6346,13 +6382,13 @@
         <v>190145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6361,13 +6397,13 @@
         <v>398292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6418,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -6397,13 +6433,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -6412,18 +6448,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6435,13 +6471,13 @@
         <v>139529</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6450,13 +6486,13 @@
         <v>206668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -6465,19 +6501,19 @@
         <v>346197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>452</v>
@@ -6486,13 +6522,13 @@
         <v>517029</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>467</v>
@@ -6501,13 +6537,13 @@
         <v>484626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>919</v>
@@ -6516,13 +6552,13 @@
         <v>1001655</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6573,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -6552,13 +6588,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -6567,18 +6603,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6590,13 +6626,13 @@
         <v>192574</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6605,13 +6641,13 @@
         <v>292635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>437</v>
@@ -6620,19 +6656,19 @@
         <v>485208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>562</v>
@@ -6641,13 +6677,13 @@
         <v>586009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>63</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6656,13 +6692,13 @@
         <v>533532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>1068</v>
@@ -6671,13 +6707,13 @@
         <v>1119542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6728,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -6707,13 +6743,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -6722,13 +6758,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6781,13 @@
         <v>778966</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>1101</v>
@@ -6760,13 +6796,13 @@
         <v>1233836</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>1870</v>
@@ -6775,19 +6811,19 @@
         <v>2012802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2462</v>
@@ -6796,13 +6832,13 @@
         <v>2615384</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>2237</v>
@@ -6811,13 +6847,13 @@
         <v>2310706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>4699</v>
@@ -6826,13 +6862,13 @@
         <v>4926090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,13 +6883,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -6862,13 +6898,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -6877,13 +6913,13 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,7 +6948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7AD9A1-A0B2-4056-8184-3558DA5753F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D57500A-86D1-4C32-BEEB-F21C095088F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7072,13 @@
         <v>74080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
@@ -7051,13 +7087,13 @@
         <v>104497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>318</v>
@@ -7066,19 +7102,19 @@
         <v>178577</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>227</v>
@@ -7087,13 +7123,13 @@
         <v>186218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
@@ -7102,13 +7138,13 @@
         <v>166906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
@@ -7117,13 +7153,13 @@
         <v>353123</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7174,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -7153,13 +7189,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -7168,18 +7204,18 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7191,13 +7227,13 @@
         <v>137263</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>501</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
@@ -7206,13 +7242,13 @@
         <v>215394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>424</v>
@@ -7221,19 +7257,19 @@
         <v>352657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>262</v>
@@ -7242,13 +7278,13 @@
         <v>382034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>364</v>
+        <v>510</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="H8" s="7">
         <v>413</v>
@@ -7257,13 +7293,13 @@
         <v>339172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>675</v>
@@ -7272,13 +7308,13 @@
         <v>721207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7293,13 +7329,13 @@
         <v>519297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>717</v>
@@ -7308,13 +7344,13 @@
         <v>554566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1099</v>
@@ -7323,18 +7359,18 @@
         <v>1073864</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7346,13 +7382,13 @@
         <v>114080</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -7361,13 +7397,13 @@
         <v>163055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -7376,19 +7412,19 @@
         <v>277135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>207</v>
@@ -7397,13 +7433,13 @@
         <v>208160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -7412,13 +7448,13 @@
         <v>210229</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -7427,13 +7463,13 @@
         <v>418389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,13 +7484,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -7463,13 +7499,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -7478,18 +7514,18 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7501,13 +7537,13 @@
         <v>112889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>311</v>
+        <v>539</v>
       </c>
       <c r="H13" s="7">
         <v>329</v>
@@ -7516,13 +7552,13 @@
         <v>188590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="M13" s="7">
         <v>448</v>
@@ -7531,19 +7567,19 @@
         <v>301479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>173</v>
@@ -7552,13 +7588,13 @@
         <v>209351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -7567,13 +7603,13 @@
         <v>239966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -7582,13 +7618,13 @@
         <v>449317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7639,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -7618,13 +7654,13 @@
         <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
@@ -7633,18 +7669,18 @@
         <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7656,13 +7692,13 @@
         <v>58510</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -7671,13 +7707,13 @@
         <v>104042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -7686,19 +7722,19 @@
         <v>162551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>188</v>
@@ -7707,13 +7743,13 @@
         <v>138238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -7722,13 +7758,13 @@
         <v>155471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>444</v>
@@ -7737,13 +7773,13 @@
         <v>293709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7758,13 +7794,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>495</v>
@@ -7773,13 +7809,13 @@
         <v>259513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>774</v>
@@ -7788,18 +7824,18 @@
         <v>456260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7811,13 +7847,13 @@
         <v>105345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -7826,13 +7862,13 @@
         <v>122290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
@@ -7841,19 +7877,19 @@
         <v>227635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>197</v>
@@ -7862,13 +7898,13 @@
         <v>171878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
@@ -7877,13 +7913,13 @@
         <v>153332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -7892,13 +7928,13 @@
         <v>325210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7949,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -7928,13 +7964,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -7943,18 +7979,18 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7966,13 +8002,13 @@
         <v>222705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="H22" s="7">
         <v>451</v>
@@ -7981,13 +8017,13 @@
         <v>421372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="M22" s="7">
         <v>682</v>
@@ -7996,19 +8032,19 @@
         <v>644077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>368</v>
@@ -8017,13 +8053,13 @@
         <v>405049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -8032,13 +8068,13 @@
         <v>382831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
         <v>877</v>
@@ -8047,13 +8083,13 @@
         <v>787880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8104,13 @@
         <v>627754</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
@@ -8083,13 +8119,13 @@
         <v>804203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>1559</v>
@@ -8098,18 +8134,18 @@
         <v>1431957</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8121,13 +8157,13 @@
         <v>186720</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>420</v>
@@ -8136,13 +8172,13 @@
         <v>304731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>312</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
@@ -8151,19 +8187,19 @@
         <v>491451</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7">
         <v>547</v>
@@ -8172,13 +8208,13 @@
         <v>672708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="H26" s="7">
         <v>642</v>
@@ -8187,13 +8223,13 @@
         <v>563703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
@@ -8202,13 +8238,13 @@
         <v>1236411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8223,13 +8259,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
@@ -8238,13 +8274,13 @@
         <v>868434</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M27" s="7">
         <v>1824</v>
@@ -8253,13 +8289,13 @@
         <v>1727862</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8312,13 @@
         <v>1011591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="H28" s="7">
         <v>2479</v>
@@ -8291,13 +8327,13 @@
         <v>1623970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="M28" s="7">
         <v>3686</v>
@@ -8306,19 +8342,19 @@
         <v>2635561</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7">
         <v>2169</v>
@@ -8327,13 +8363,13 @@
         <v>2373637</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="H29" s="7">
         <v>2888</v>
@@ -8342,13 +8378,13 @@
         <v>2211611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="M29" s="7">
         <v>5057</v>
@@ -8357,13 +8393,13 @@
         <v>4585247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,13 +8414,13 @@
         <v>3385228</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>5367</v>
@@ -8393,13 +8429,13 @@
         <v>3835581</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M30" s="7">
         <v>8743</v>
@@ -8408,13 +8444,13 @@
         <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD0F70D-B1F8-432F-9BFF-221E9137A80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DBB002-7A0F-4FE9-8EEF-77EF17E01178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59066ED4-EC5A-4544-A8BF-3C15B2153B50}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D4FFACF-BDB1-4C3E-A19F-750182DE43E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1891 +77,1855 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>12,43%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>26,9%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
     <t>58,82%</t>
   </si>
   <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>35,48%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>31,08%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>44,98%</t>
   </si>
   <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
   </si>
   <si>
     <t>64,52%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>68,92%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
   </si>
   <si>
     <t>21,73%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>17,21%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>32,04%</t>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>82,79%</t>
   </si>
   <si>
     <t>64,91%</t>
   </si>
   <si>
-    <t>67,96%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
+    <t>27,98%</t>
   </si>
   <si>
     <t>42,34%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>36,5%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>72,02%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>63,5%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07526AC-81C9-423B-8296-B560BA61D024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA4327E-5BB7-47A6-8001-CC096F0AEE85}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2527,19 +2491,19 @@
         <v>116582</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>222</v>
@@ -2548,13 +2512,13 @@
         <v>226605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -2563,13 +2527,13 @@
         <v>190661</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>399</v>
@@ -2578,13 +2542,13 @@
         <v>417266</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2563,13 @@
         <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>245</v>
@@ -2614,13 +2578,13 @@
         <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>516</v>
@@ -2629,18 +2593,18 @@
         <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2652,13 +2616,13 @@
         <v>67958</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -2667,13 +2631,13 @@
         <v>154593</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>218</v>
@@ -2682,19 +2646,19 @@
         <v>222551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>400</v>
@@ -2703,13 +2667,13 @@
         <v>425117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>346</v>
@@ -2718,13 +2682,13 @@
         <v>349356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>746</v>
@@ -2733,13 +2697,13 @@
         <v>774473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2718,13 @@
         <v>493075</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>499</v>
@@ -2769,13 +2733,13 @@
         <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>964</v>
@@ -2784,18 +2748,18 @@
         <v>997024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2807,13 +2771,13 @@
         <v>50841</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -2822,13 +2786,13 @@
         <v>88830</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -2837,19 +2801,19 @@
         <v>139671</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>259</v>
@@ -2858,13 +2822,13 @@
         <v>268005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -2873,13 +2837,13 @@
         <v>246582</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>506</v>
@@ -2888,13 +2852,13 @@
         <v>514587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2873,13 @@
         <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>335</v>
@@ -2924,13 +2888,13 @@
         <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>645</v>
@@ -2939,18 +2903,18 @@
         <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2962,13 +2926,13 @@
         <v>64609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -2977,13 +2941,13 @@
         <v>118406</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>190</v>
@@ -2992,19 +2956,19 @@
         <v>183015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>294</v>
@@ -3013,13 +2977,13 @@
         <v>294062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -3028,13 +2992,13 @@
         <v>253050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>556</v>
@@ -3043,13 +3007,13 @@
         <v>547112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3028,13 @@
         <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>384</v>
@@ -3079,13 +3043,13 @@
         <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>746</v>
@@ -3094,18 +3058,18 @@
         <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3117,13 +3081,13 @@
         <v>31488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -3132,13 +3096,13 @@
         <v>74517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -3147,19 +3111,19 @@
         <v>106005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>172</v>
@@ -3168,13 +3132,13 @@
         <v>171820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>128</v>
@@ -3183,13 +3147,13 @@
         <v>133151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>300</v>
@@ -3198,13 +3162,13 @@
         <v>304971</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3183,13 @@
         <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>198</v>
@@ -3234,13 +3198,13 @@
         <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>404</v>
@@ -3249,18 +3213,18 @@
         <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3272,13 +3236,13 @@
         <v>49012</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3287,13 +3251,13 @@
         <v>81650</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -3302,19 +3266,19 @@
         <v>130662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>217</v>
@@ -3323,13 +3287,13 @@
         <v>221799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -3338,13 +3302,13 @@
         <v>196494</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>409</v>
@@ -3353,13 +3317,13 @@
         <v>418293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3338,13 @@
         <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3389,13 +3353,13 @@
         <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>536</v>
@@ -3404,18 +3368,18 @@
         <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3427,13 +3391,13 @@
         <v>107265</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>180</v>
@@ -3442,13 +3406,13 @@
         <v>181143</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>290</v>
@@ -3457,19 +3421,19 @@
         <v>288408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>488</v>
@@ -3478,13 +3442,13 @@
         <v>507762</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>441</v>
@@ -3493,13 +3457,13 @@
         <v>457076</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>929</v>
@@ -3508,13 +3472,13 @@
         <v>964838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3493,13 @@
         <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>621</v>
@@ -3544,13 +3508,13 @@
         <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1219</v>
@@ -3559,18 +3523,18 @@
         <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3582,13 +3546,13 @@
         <v>154523</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>219</v>
@@ -3597,13 +3561,13 @@
         <v>237198</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>377</v>
@@ -3612,19 +3576,19 @@
         <v>391720</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>578</v>
@@ -3633,13 +3597,13 @@
         <v>589272</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>526</v>
@@ -3648,13 +3612,13 @@
         <v>546313</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1104</v>
@@ -3663,13 +3627,13 @@
         <v>1135586</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3648,13 @@
         <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>745</v>
@@ -3699,13 +3663,13 @@
         <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1481</v>
@@ -3714,13 +3678,13 @@
         <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3701,13 @@
         <v>572101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>978</v>
@@ -3752,13 +3716,13 @@
         <v>1006514</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1562</v>
@@ -3767,34 +3731,34 @@
         <v>1578614</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2630</v>
       </c>
       <c r="D29" s="7">
-        <v>2704442</v>
+        <v>2704443</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2319</v>
@@ -3803,28 +3767,28 @@
         <v>2372684</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4949</v>
       </c>
       <c r="N29" s="7">
-        <v>5077127</v>
+        <v>5077126</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,16 +3800,16 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3297</v>
@@ -3854,33 +3818,33 @@
         <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A7E05-AE50-4169-BCBE-75CF779B5984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC67917D-B16B-4F42-B4EA-CE63A704F07C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3921,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4026,84 +3990,84 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,44 +4080,44 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4165,13 +4129,13 @@
         <v>131038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -4180,13 +4144,13 @@
         <v>218291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>309</v>
@@ -4195,19 +4159,19 @@
         <v>349329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>360</v>
@@ -4216,13 +4180,13 @@
         <v>374489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -4231,13 +4195,13 @@
         <v>305474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
@@ -4246,13 +4210,13 @@
         <v>679963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4231,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -4282,13 +4246,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -4297,18 +4261,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4320,13 +4284,13 @@
         <v>96621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4335,13 +4299,13 @@
         <v>148921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -4350,19 +4314,19 @@
         <v>245542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>228</v>
@@ -4371,13 +4335,13 @@
         <v>227425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -4386,13 +4350,13 @@
         <v>192099</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -4401,13 +4365,13 @@
         <v>419524</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4386,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -4437,13 +4401,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -4452,18 +4416,18 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4475,13 +4439,13 @@
         <v>164807</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -4490,13 +4454,13 @@
         <v>295208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>425</v>
@@ -4505,19 +4469,19 @@
         <v>460015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>478</v>
@@ -4526,13 +4490,13 @@
         <v>503913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>350</v>
@@ -4541,13 +4505,13 @@
         <v>380988</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>828</v>
@@ -4556,13 +4520,13 @@
         <v>884901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4541,13 @@
         <v>668720</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>627</v>
@@ -4592,13 +4556,13 @@
         <v>676196</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1253</v>
@@ -4607,18 +4571,18 @@
         <v>1344916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4672,7 +4636,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>144</v>
@@ -4732,13 +4696,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -4747,13 +4711,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -4762,18 +4726,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4827,7 +4791,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>174</v>
@@ -4887,13 +4851,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -4902,13 +4866,13 @@
         <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>530</v>
@@ -4917,18 +4881,18 @@
         <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4982,7 +4946,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>469</v>
@@ -5042,13 +5006,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -5057,13 +5021,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -5072,18 +5036,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5098,10 +5062,10 @@
         <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -5110,13 +5074,13 @@
         <v>257173</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>384</v>
@@ -5125,19 +5089,19 @@
         <v>421798</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>570</v>
@@ -5146,13 +5110,13 @@
         <v>614473</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>520</v>
@@ -5161,13 +5125,13 @@
         <v>566680</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1090</v>
@@ -5176,13 +5140,13 @@
         <v>1181153</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5161,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>757</v>
@@ -5212,13 +5176,13 @@
         <v>823853</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1474</v>
@@ -5227,13 +5191,13 @@
         <v>1602951</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5214,13 @@
         <v>865562</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>1317</v>
@@ -5265,13 +5229,13 @@
         <v>1423478</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="M28" s="7">
         <v>2103</v>
@@ -5280,19 +5244,19 @@
         <v>2289040</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2423</v>
@@ -5301,13 +5265,13 @@
         <v>2561217</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>1981</v>
@@ -5316,13 +5280,13 @@
         <v>2134831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>4404</v>
@@ -5331,13 +5295,13 @@
         <v>4696048</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5316,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3298</v>
@@ -5367,13 +5331,13 @@
         <v>3558309</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6507</v>
@@ -5382,18 +5346,18 @@
         <v>6985088</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5417,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E16F6CF-A8A3-4EE8-9FDB-AE5F2DFF6D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B32AF9-68AA-412D-95CE-DCECE8A253D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5434,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5541,13 +5505,13 @@
         <v>54695</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5556,13 +5520,13 @@
         <v>89703</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -5571,19 +5535,19 @@
         <v>144398</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>212</v>
@@ -5592,13 +5556,13 @@
         <v>239066</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5607,13 +5571,13 @@
         <v>199000</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -5622,13 +5586,13 @@
         <v>438066</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5607,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -5658,13 +5622,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -5673,18 +5637,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5696,13 +5660,13 @@
         <v>115445</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -5711,13 +5675,13 @@
         <v>195528</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -5726,19 +5690,19 @@
         <v>310972</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>364</v>
@@ -5747,13 +5711,13 @@
         <v>387130</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -5762,13 +5726,13 @@
         <v>327556</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M8" s="7">
         <v>673</v>
@@ -5777,10 +5741,10 @@
         <v>714687</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>359</v>
@@ -5798,13 +5762,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -5813,13 +5777,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -5828,18 +5792,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5893,7 +5857,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>259</v>
@@ -5953,13 +5917,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -5968,13 +5932,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -5983,18 +5947,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6048,7 +6012,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>241</v>
@@ -6108,13 +6072,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -6123,13 +6087,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -6138,18 +6102,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6203,7 +6167,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>170</v>
@@ -6263,13 +6227,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -6278,13 +6242,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -6293,18 +6257,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6358,7 +6322,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>202</v>
@@ -6418,13 +6382,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -6433,13 +6397,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -6448,18 +6412,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6471,13 +6435,13 @@
         <v>139529</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6486,13 +6450,13 @@
         <v>206668</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -6501,19 +6465,19 @@
         <v>346197</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>452</v>
@@ -6522,13 +6486,13 @@
         <v>517029</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>467</v>
@@ -6537,13 +6501,13 @@
         <v>484626</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>919</v>
@@ -6552,13 +6516,13 @@
         <v>1001655</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6537,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -6588,13 +6552,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -6603,18 +6567,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6626,13 +6590,13 @@
         <v>192574</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6641,13 +6605,13 @@
         <v>292635</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>437</v>
@@ -6656,19 +6620,19 @@
         <v>485208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>562</v>
@@ -6677,13 +6641,13 @@
         <v>586009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>63</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6692,13 +6656,13 @@
         <v>533532</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>1068</v>
@@ -6707,13 +6671,13 @@
         <v>1119542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6692,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -6743,13 +6707,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -6758,13 +6722,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,13 +6745,13 @@
         <v>778966</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>1101</v>
@@ -6796,13 +6760,13 @@
         <v>1233836</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>1870</v>
@@ -6811,19 +6775,19 @@
         <v>2012802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2462</v>
@@ -6832,13 +6796,13 @@
         <v>2615384</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H29" s="7">
         <v>2237</v>
@@ -6847,13 +6811,13 @@
         <v>2310706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="M29" s="7">
         <v>4699</v>
@@ -6862,13 +6826,13 @@
         <v>4926090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6847,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -6898,13 +6862,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -6913,18 +6877,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6948,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D57500A-86D1-4C32-BEEB-F21C095088F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14074C3A-2C3B-463D-AE2D-E300F3D4BD49}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6965,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7072,13 +7036,13 @@
         <v>74080</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
@@ -7087,13 +7051,13 @@
         <v>104497</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>318</v>
@@ -7102,19 +7066,19 @@
         <v>178577</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>490</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>227</v>
@@ -7123,13 +7087,13 @@
         <v>186218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
@@ -7138,13 +7102,13 @@
         <v>166906</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>497</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
@@ -7153,13 +7117,13 @@
         <v>353123</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>500</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7138,13 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
@@ -7189,13 +7153,13 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
@@ -7204,18 +7168,18 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -7227,13 +7191,13 @@
         <v>137263</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>503</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
@@ -7242,13 +7206,13 @@
         <v>215394</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>424</v>
@@ -7257,19 +7221,19 @@
         <v>352657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>262</v>
@@ -7278,13 +7242,13 @@
         <v>382034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>413</v>
@@ -7293,13 +7257,13 @@
         <v>339172</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>675</v>
@@ -7308,13 +7272,13 @@
         <v>721207</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7293,13 @@
         <v>519297</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>717</v>
@@ -7344,13 +7308,13 @@
         <v>554566</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1099</v>
@@ -7359,18 +7323,18 @@
         <v>1073864</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7382,13 +7346,13 @@
         <v>114080</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
@@ -7397,13 +7361,13 @@
         <v>163055</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
@@ -7412,19 +7376,19 @@
         <v>277135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>207</v>
@@ -7433,13 +7397,13 @@
         <v>208160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
@@ -7448,13 +7412,13 @@
         <v>210229</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
@@ -7463,13 +7427,13 @@
         <v>418389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,13 +7448,13 @@
         <v>322240</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
@@ -7499,13 +7463,13 @@
         <v>373284</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
@@ -7514,18 +7478,18 @@
         <v>695524</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7537,13 +7501,13 @@
         <v>112889</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>329</v>
@@ -7552,13 +7516,13 @@
         <v>188590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>448</v>
@@ -7567,19 +7531,19 @@
         <v>301479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>173</v>
@@ -7588,13 +7552,13 @@
         <v>209351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -7603,13 +7567,13 @@
         <v>239966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -7618,13 +7582,13 @@
         <v>449317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7603,13 @@
         <v>322240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
@@ -7654,13 +7618,13 @@
         <v>428556</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
@@ -7669,18 +7633,18 @@
         <v>750796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7692,13 +7656,13 @@
         <v>58510</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>556</v>
+        <v>112</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
@@ -7707,13 +7671,13 @@
         <v>104042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
@@ -7722,19 +7686,19 @@
         <v>162551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>188</v>
@@ -7743,13 +7707,13 @@
         <v>138238</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>565</v>
+        <v>122</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
@@ -7758,13 +7722,13 @@
         <v>155471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>444</v>
@@ -7773,13 +7737,13 @@
         <v>293709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7794,13 +7758,13 @@
         <v>196748</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>495</v>
@@ -7809,13 +7773,13 @@
         <v>259513</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>774</v>
@@ -7824,18 +7788,18 @@
         <v>456260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7847,13 +7811,13 @@
         <v>105345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
@@ -7862,13 +7826,13 @@
         <v>122290</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
@@ -7877,19 +7841,19 @@
         <v>227635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>197</v>
@@ -7898,13 +7862,13 @@
         <v>171878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
@@ -7913,13 +7877,13 @@
         <v>153332</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -7928,13 +7892,13 @@
         <v>325210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7949,13 +7913,13 @@
         <v>277223</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>460</v>
@@ -7964,13 +7928,13 @@
         <v>275622</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -7979,18 +7943,18 @@
         <v>552845</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8002,13 +7966,13 @@
         <v>222705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>591</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>451</v>
@@ -8017,13 +7981,13 @@
         <v>421372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>682</v>
@@ -8032,19 +7996,19 @@
         <v>644077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>368</v>
@@ -8053,13 +8017,13 @@
         <v>405049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>599</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
@@ -8068,13 +8032,13 @@
         <v>382831</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>877</v>
@@ -8083,13 +8047,13 @@
         <v>787880</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8068,13 @@
         <v>627754</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>960</v>
@@ -8119,13 +8083,13 @@
         <v>804203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1559</v>
@@ -8134,18 +8098,18 @@
         <v>1431957</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8157,13 +8121,13 @@
         <v>186720</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>609</v>
+        <v>204</v>
       </c>
       <c r="H25" s="7">
         <v>420</v>
@@ -8172,13 +8136,13 @@
         <v>304731</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>601</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
@@ -8187,19 +8151,19 @@
         <v>491451</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>547</v>
@@ -8208,13 +8172,13 @@
         <v>672708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>616</v>
+        <v>214</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>642</v>
@@ -8223,13 +8187,13 @@
         <v>563703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
@@ -8238,13 +8202,13 @@
         <v>1236411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8223,13 @@
         <v>859428</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1062</v>
@@ -8274,13 +8238,13 @@
         <v>868434</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1824</v>
@@ -8289,13 +8253,13 @@
         <v>1727862</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,13 +8276,13 @@
         <v>1011591</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>625</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>2479</v>
@@ -8327,34 +8291,34 @@
         <v>1623970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>3686</v>
       </c>
       <c r="N28" s="7">
-        <v>2635561</v>
+        <v>2635562</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>2169</v>
@@ -8363,13 +8327,13 @@
         <v>2373637</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>633</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>2888</v>
@@ -8378,13 +8342,13 @@
         <v>2211611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>5057</v>
@@ -8393,13 +8357,13 @@
         <v>4585247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8414,13 +8378,13 @@
         <v>3385228</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5367</v>
@@ -8429,33 +8393,33 @@
         <v>3835581</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DBB002-7A0F-4FE9-8EEF-77EF17E01178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E314008-878F-48F3-81BD-51CC8D458FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D4FFACF-BDB1-4C3E-A19F-750182DE43E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D876EACC-A6F0-4F2F-8A57-3BDC74A6B480}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="650">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -593,7 +593,58 @@
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>25,92%</t>
@@ -704,52 +755,58 @@
     <t>66,63%</t>
   </si>
   <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>27,49%</t>
@@ -1484,448 +1541,454 @@
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>51,97%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA4327E-5BB7-47A6-8001-CC096F0AEE85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2FC35-6290-478C-91C5-AE1EA098D7AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3749,7 +3812,7 @@
         <v>2630</v>
       </c>
       <c r="D29" s="7">
-        <v>2704443</v>
+        <v>2704442</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3764,7 +3827,7 @@
         <v>2319</v>
       </c>
       <c r="I29" s="7">
-        <v>2372684</v>
+        <v>2372683</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -3779,7 +3842,7 @@
         <v>4949</v>
       </c>
       <c r="N29" s="7">
-        <v>5077126</v>
+        <v>5077127</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3800,7 +3863,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3815,7 +3878,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3830,7 +3893,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3868,7 +3931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC67917D-B16B-4F42-B4EA-CE63A704F07C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BABC1AC-6BBA-456E-AC7F-BE1F52974FBC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,43 +4049,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D4" s="7">
+        <v>72944</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I4" s="7">
+        <v>118980</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="N4" s="7">
+        <v>191924</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,43 +4100,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="D5" s="7">
+        <v>221794</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="I5" s="7">
+        <v>168265</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>362</v>
+      </c>
+      <c r="N5" s="7">
+        <v>390059</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,43 +4151,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4210,13 @@
         <v>131038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -4144,13 +4225,13 @@
         <v>218291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
         <v>309</v>
@@ -4159,13 +4240,13 @@
         <v>349329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4261,13 @@
         <v>374489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>283</v>
@@ -4195,13 +4276,13 @@
         <v>305474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>643</v>
@@ -4210,13 +4291,13 @@
         <v>679963</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4365,13 @@
         <v>96621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
         <v>139</v>
@@ -4299,13 +4380,13 @@
         <v>148921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>230</v>
@@ -4314,13 +4395,13 @@
         <v>245542</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4416,13 @@
         <v>227425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
         <v>178</v>
@@ -4350,13 +4431,13 @@
         <v>192099</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>406</v>
@@ -4365,13 +4446,13 @@
         <v>419524</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,49 +4514,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>164807</v>
+        <v>91863</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="I13" s="7">
-        <v>295208</v>
+        <v>176228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
-        <v>425</v>
+        <v>249</v>
       </c>
       <c r="N13" s="7">
-        <v>460015</v>
+        <v>268091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,49 +4565,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>478</v>
+        <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>503913</v>
+        <v>282119</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>350</v>
+        <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>380988</v>
+        <v>212723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>828</v>
+        <v>466</v>
       </c>
       <c r="N14" s="7">
-        <v>884901</v>
+        <v>494842</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,10 +4616,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4550,10 +4631,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4565,10 +4646,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4594,13 +4675,13 @@
         <v>58443</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -4609,13 +4690,13 @@
         <v>117994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -4624,13 +4705,13 @@
         <v>176436</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4726,13 @@
         <v>154175</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4660,13 +4741,13 @@
         <v>101597</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>244</v>
@@ -4675,13 +4756,13 @@
         <v>255773</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4830,13 @@
         <v>88796</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4764,13 +4845,13 @@
         <v>122965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -4779,13 +4860,13 @@
         <v>211762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4881,13 @@
         <v>185185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>150</v>
@@ -4815,13 +4896,13 @@
         <v>157066</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>324</v>
@@ -4830,13 +4911,13 @@
         <v>342250</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4985,13 @@
         <v>161232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -4919,13 +5000,13 @@
         <v>262926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>385</v>
@@ -4934,13 +5015,13 @@
         <v>424158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +5036,13 @@
         <v>501556</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
         <v>400</v>
@@ -4970,13 +5051,13 @@
         <v>430927</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
         <v>869</v>
@@ -4985,13 +5066,13 @@
         <v>932483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5140,13 @@
         <v>164625</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -5074,13 +5155,13 @@
         <v>257173</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="M25" s="7">
         <v>384</v>
@@ -5089,13 +5170,13 @@
         <v>421798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,10 +5191,10 @@
         <v>614473</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>157</v>
@@ -5125,13 +5206,13 @@
         <v>566680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
         <v>1090</v>
@@ -5140,13 +5221,13 @@
         <v>1181153</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5295,13 @@
         <v>865562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>1317</v>
@@ -5229,13 +5310,13 @@
         <v>1423478</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>2103</v>
@@ -5244,13 +5325,13 @@
         <v>2289040</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5346,13 @@
         <v>2561217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="H29" s="7">
         <v>1981</v>
@@ -5280,13 +5361,13 @@
         <v>2134831</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>4404</v>
@@ -5295,13 +5376,13 @@
         <v>4696048</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B32AF9-68AA-412D-95CE-DCECE8A253D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497D2717-58B8-401D-9D77-091BDC17CA6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5586,13 @@
         <v>54695</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -5520,13 +5601,13 @@
         <v>89703</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>138</v>
@@ -5535,13 +5616,13 @@
         <v>144398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5637,13 @@
         <v>239066</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5571,13 +5652,13 @@
         <v>199000</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="M5" s="7">
         <v>405</v>
@@ -5586,13 +5667,13 @@
         <v>438066</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5741,13 @@
         <v>115445</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="H7" s="7">
         <v>175</v>
@@ -5675,13 +5756,13 @@
         <v>195528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -5690,13 +5771,13 @@
         <v>310972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5792,13 @@
         <v>387130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>309</v>
@@ -5726,13 +5807,13 @@
         <v>327556</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M8" s="7">
         <v>673</v>
@@ -5741,13 +5822,13 @@
         <v>714687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5896,13 @@
         <v>69182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>89</v>
@@ -5830,13 +5911,13 @@
         <v>97683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -5845,13 +5926,13 @@
         <v>166865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5947,13 @@
         <v>249383</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>243</v>
@@ -5881,13 +5962,13 @@
         <v>238626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -5896,13 +5977,13 @@
         <v>488009</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +6051,13 @@
         <v>111083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="H13" s="7">
         <v>154</v>
@@ -5985,13 +6066,13 @@
         <v>171174</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>267</v>
@@ -6000,13 +6081,13 @@
         <v>282258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6102,13 @@
         <v>258881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6036,13 +6117,13 @@
         <v>216109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="M14" s="7">
         <v>445</v>
@@ -6051,13 +6132,13 @@
         <v>474989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6206,13 @@
         <v>41482</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -6140,13 +6221,13 @@
         <v>97476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -6155,13 +6236,13 @@
         <v>138958</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6257,13 @@
         <v>169739</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -6191,13 +6272,13 @@
         <v>121111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
         <v>297</v>
@@ -6206,13 +6287,13 @@
         <v>290850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6361,13 @@
         <v>54977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -6295,13 +6376,13 @@
         <v>82970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="M19" s="7">
         <v>132</v>
@@ -6310,13 +6391,13 @@
         <v>137946</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6412,13 @@
         <v>208146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -6346,13 +6427,13 @@
         <v>190145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -6361,13 +6442,13 @@
         <v>398292</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,10 +6519,10 @@
         <v>91</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="H22" s="7">
         <v>179</v>
@@ -6450,13 +6531,13 @@
         <v>206668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="M22" s="7">
         <v>307</v>
@@ -6465,13 +6546,13 @@
         <v>346197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,10 +6570,10 @@
         <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="H23" s="7">
         <v>467</v>
@@ -6501,13 +6582,13 @@
         <v>484626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="M23" s="7">
         <v>919</v>
@@ -6516,13 +6597,13 @@
         <v>1001655</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6671,13 @@
         <v>192574</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7">
         <v>249</v>
@@ -6605,13 +6686,13 @@
         <v>292635</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="M25" s="7">
         <v>437</v>
@@ -6620,13 +6701,13 @@
         <v>485208</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6722,13 @@
         <v>586009</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="H26" s="7">
         <v>506</v>
@@ -6656,13 +6737,13 @@
         <v>533532</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="M26" s="7">
         <v>1068</v>
@@ -6671,13 +6752,13 @@
         <v>1119542</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6826,13 @@
         <v>778966</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="H28" s="7">
         <v>1101</v>
@@ -6760,13 +6841,13 @@
         <v>1233836</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="M28" s="7">
         <v>1870</v>
@@ -6775,13 +6856,13 @@
         <v>2012802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6877,13 @@
         <v>2615384</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="H29" s="7">
         <v>2237</v>
@@ -6811,13 +6892,13 @@
         <v>2310706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="M29" s="7">
         <v>4699</v>
@@ -6826,13 +6907,13 @@
         <v>4926090</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,7 +6993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14074C3A-2C3B-463D-AE2D-E300F3D4BD49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD91BC-4624-4ED6-A406-9D9F8C1114DE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +7010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7033,46 +7114,46 @@
         <v>104</v>
       </c>
       <c r="D4" s="7">
-        <v>74080</v>
+        <v>82468</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>214</v>
       </c>
       <c r="I4" s="7">
-        <v>104497</v>
+        <v>108718</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>503</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="M4" s="7">
         <v>318</v>
       </c>
       <c r="N4" s="7">
-        <v>178577</v>
+        <v>191186</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,46 +7165,46 @@
         <v>227</v>
       </c>
       <c r="D5" s="7">
-        <v>186218</v>
+        <v>228975</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>63</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="H5" s="7">
         <v>324</v>
       </c>
       <c r="I5" s="7">
-        <v>166906</v>
+        <v>180917</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>512</v>
       </c>
       <c r="M5" s="7">
         <v>551</v>
       </c>
       <c r="N5" s="7">
-        <v>353123</v>
+        <v>409891</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7216,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7150,7 +7231,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7165,7 +7246,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7188,46 +7269,46 @@
         <v>120</v>
       </c>
       <c r="D7" s="7">
-        <v>137263</v>
+        <v>131166</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>518</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>215394</v>
+        <v>198962</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="M7" s="7">
         <v>424</v>
       </c>
       <c r="N7" s="7">
-        <v>352657</v>
+        <v>330128</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,46 +7320,46 @@
         <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>382034</v>
+        <v>387224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>526</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="H8" s="7">
         <v>413</v>
       </c>
       <c r="I8" s="7">
-        <v>339172</v>
+        <v>316007</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="M8" s="7">
         <v>675</v>
       </c>
       <c r="N8" s="7">
-        <v>721207</v>
+        <v>703231</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7371,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7305,7 +7386,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7320,7 +7401,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7343,46 +7424,46 @@
         <v>153</v>
       </c>
       <c r="D10" s="7">
-        <v>114080</v>
+        <v>109560</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="H10" s="7">
         <v>272</v>
       </c>
       <c r="I10" s="7">
-        <v>163055</v>
+        <v>151412</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="M10" s="7">
         <v>425</v>
       </c>
       <c r="N10" s="7">
-        <v>277135</v>
+        <v>260972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,46 +7475,46 @@
         <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>208160</v>
+        <v>206490</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>264</v>
       </c>
       <c r="I11" s="7">
-        <v>210229</v>
+        <v>197716</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>471</v>
       </c>
       <c r="N11" s="7">
-        <v>418389</v>
+        <v>404206</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7526,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7460,7 +7541,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7475,7 +7556,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7498,46 +7579,46 @@
         <v>119</v>
       </c>
       <c r="D13" s="7">
-        <v>112889</v>
+        <v>107585</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="H13" s="7">
         <v>329</v>
       </c>
       <c r="I13" s="7">
-        <v>188590</v>
+        <v>173824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="M13" s="7">
         <v>448</v>
       </c>
       <c r="N13" s="7">
-        <v>301479</v>
+        <v>281409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,46 +7630,46 @@
         <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>209351</v>
+        <v>204972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
       </c>
       <c r="I14" s="7">
-        <v>239966</v>
+        <v>301894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
       </c>
       <c r="N14" s="7">
-        <v>449317</v>
+        <v>506865</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,7 +7681,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7615,7 +7696,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7630,7 +7711,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7653,46 +7734,46 @@
         <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>58510</v>
+        <v>53069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>571</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="H16" s="7">
         <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>104042</v>
+        <v>94188</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="M16" s="7">
         <v>330</v>
       </c>
       <c r="N16" s="7">
-        <v>162551</v>
+        <v>147257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,46 +7785,46 @@
         <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>138238</v>
+        <v>125673</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>122</v>
+        <v>580</v>
       </c>
       <c r="H17" s="7">
         <v>256</v>
       </c>
       <c r="I17" s="7">
-        <v>155471</v>
+        <v>164591</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="M17" s="7">
         <v>444</v>
       </c>
       <c r="N17" s="7">
-        <v>293709</v>
+        <v>290264</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,7 +7836,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7770,7 +7851,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7785,7 +7866,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7808,46 +7889,46 @@
         <v>174</v>
       </c>
       <c r="D19" s="7">
-        <v>105345</v>
+        <v>101237</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>588</v>
       </c>
       <c r="H19" s="7">
         <v>250</v>
       </c>
       <c r="I19" s="7">
-        <v>122290</v>
+        <v>113839</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>590</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>591</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
       </c>
       <c r="N19" s="7">
-        <v>227635</v>
+        <v>215077</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,46 +7940,46 @@
         <v>197</v>
       </c>
       <c r="D20" s="7">
-        <v>171878</v>
+        <v>168399</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>596</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>210</v>
       </c>
       <c r="I20" s="7">
-        <v>153332</v>
+        <v>143217</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>598</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
       </c>
       <c r="N20" s="7">
-        <v>325210</v>
+        <v>311615</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>601</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,7 +7991,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7925,7 +8006,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7940,7 +8021,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7963,46 +8044,46 @@
         <v>231</v>
       </c>
       <c r="D22" s="7">
-        <v>222705</v>
+        <v>216851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>604</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>605</v>
       </c>
       <c r="H22" s="7">
         <v>451</v>
       </c>
       <c r="I22" s="7">
-        <v>421372</v>
+        <v>490951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>607</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="M22" s="7">
         <v>682</v>
       </c>
       <c r="N22" s="7">
-        <v>644077</v>
+        <v>707801</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>609</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,46 +8095,46 @@
         <v>368</v>
       </c>
       <c r="D23" s="7">
-        <v>405049</v>
+        <v>407428</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>612</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>212</v>
       </c>
       <c r="H23" s="7">
         <v>509</v>
       </c>
       <c r="I23" s="7">
-        <v>382831</v>
+        <v>358314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="M23" s="7">
         <v>877</v>
       </c>
       <c r="N23" s="7">
-        <v>787880</v>
+        <v>765743</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,7 +8146,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8080,7 +8161,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8095,7 +8176,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8118,46 +8199,46 @@
         <v>215</v>
       </c>
       <c r="D25" s="7">
-        <v>186720</v>
+        <v>159395</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>204</v>
+        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>420</v>
       </c>
       <c r="I25" s="7">
-        <v>304731</v>
+        <v>254775</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="M25" s="7">
         <v>635</v>
       </c>
       <c r="N25" s="7">
-        <v>491451</v>
+        <v>414170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,46 +8250,46 @@
         <v>547</v>
       </c>
       <c r="D26" s="7">
-        <v>672708</v>
+        <v>769325</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>214</v>
+        <v>628</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>629</v>
       </c>
       <c r="H26" s="7">
         <v>642</v>
       </c>
       <c r="I26" s="7">
-        <v>563703</v>
+        <v>462956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>630</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>631</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>632</v>
       </c>
       <c r="M26" s="7">
         <v>1189</v>
       </c>
       <c r="N26" s="7">
-        <v>1236411</v>
+        <v>1232282</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8220,7 +8301,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8235,7 +8316,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8250,7 +8331,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8273,46 +8354,46 @@
         <v>1207</v>
       </c>
       <c r="D28" s="7">
-        <v>1011591</v>
+        <v>961331</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>638</v>
       </c>
       <c r="H28" s="7">
         <v>2479</v>
       </c>
       <c r="I28" s="7">
-        <v>1623970</v>
+        <v>1586668</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="M28" s="7">
         <v>3686</v>
       </c>
       <c r="N28" s="7">
-        <v>2635562</v>
+        <v>2547999</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>222</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>619</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,46 +8405,46 @@
         <v>2169</v>
       </c>
       <c r="D29" s="7">
-        <v>2373637</v>
+        <v>2498486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>322</v>
+        <v>644</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>645</v>
       </c>
       <c r="H29" s="7">
         <v>2888</v>
       </c>
       <c r="I29" s="7">
-        <v>2211611</v>
+        <v>2125612</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="M29" s="7">
         <v>5057</v>
       </c>
       <c r="N29" s="7">
-        <v>4585247</v>
+        <v>4624098</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8456,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8390,7 +8471,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8405,7 +8486,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
